--- a/app/Http/Python/excel/Tuesday.xlsx
+++ b/app/Http/Python/excel/Tuesday.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,59 +25,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="218">
   <si>
     <t>1年</t>
   </si>
   <si>
-    <t>unified english ib1</t>
-  </si>
-  <si>
     <t>小野沢千恵子</t>
   </si>
   <si>
     <t>前期</t>
   </si>
   <si>
-    <t>unified english ih</t>
-  </si>
-  <si>
     <t>スティーブンフェリアー</t>
   </si>
   <si>
-    <t>spoken english ib3</t>
-  </si>
-  <si>
     <t>内田パメラ</t>
   </si>
   <si>
-    <t>キリスト教概論 i</t>
-  </si>
-  <si>
     <t>野村誠</t>
   </si>
   <si>
-    <t>unified english iib1</t>
-  </si>
-  <si>
     <t>後期</t>
   </si>
   <si>
-    <t>unified english iih</t>
-  </si>
-  <si>
-    <t>spoken english iib3</t>
-  </si>
-  <si>
-    <t>キリスト教概論 ii</t>
-  </si>
-  <si>
     <t>2年</t>
   </si>
   <si>
-    <t>英語reading ia1</t>
-  </si>
-  <si>
     <t>原島秀人</t>
   </si>
   <si>
@@ -86,9 +60,6 @@
     <t>岡井宏文</t>
   </si>
   <si>
-    <t>英語reading iia1</t>
-  </si>
-  <si>
     <t>健康運動実習</t>
   </si>
   <si>
@@ -101,63 +72,27 @@
     <t>3年</t>
   </si>
   <si>
-    <t>英米地域研究 i</t>
-  </si>
-  <si>
     <t>ウェインペニントン</t>
   </si>
   <si>
-    <t>課題実習 i(内田)</t>
-  </si>
-  <si>
     <t>内田直仁</t>
   </si>
   <si>
-    <t>英米地域研究 ii</t>
-  </si>
-  <si>
     <t>地域と観光</t>
   </si>
   <si>
-    <t>観光実習 ii(内田)</t>
-  </si>
-  <si>
-    <t>unified english if2</t>
-  </si>
-  <si>
-    <t>unified english ig</t>
-  </si>
-  <si>
-    <t>spoken english ic</t>
-  </si>
-  <si>
     <t>園田敦子</t>
   </si>
   <si>
-    <t>spoken english if1</t>
-  </si>
-  <si>
     <t>鷹野浩子</t>
   </si>
   <si>
-    <t>call ia</t>
-  </si>
-  <si>
-    <t>中国語 i</t>
-  </si>
-  <si>
     <t>大路潔江</t>
   </si>
   <si>
-    <t>中国語 a</t>
-  </si>
-  <si>
     <t>張渭涛</t>
   </si>
   <si>
-    <t>国語表現(情報f3.児童)</t>
-  </si>
-  <si>
     <t>青木祐子</t>
   </si>
   <si>
@@ -179,33 +114,12 @@
     <t>美術室</t>
   </si>
   <si>
-    <t>unified english iif2</t>
-  </si>
-  <si>
-    <t>unified english iig</t>
-  </si>
-  <si>
-    <t>spoken english iic</t>
-  </si>
-  <si>
-    <t>spoken english iif1</t>
-  </si>
-  <si>
-    <t>call iia</t>
-  </si>
-  <si>
     <t>児童英語概論</t>
   </si>
   <si>
     <t>井熊ひとみ</t>
   </si>
   <si>
-    <t>中国語 b</t>
-  </si>
-  <si>
-    <t>国語表現 (b1.b2.b3)</t>
-  </si>
-  <si>
     <t>造形</t>
   </si>
   <si>
@@ -215,21 +129,12 @@
     <t>平田侑美</t>
   </si>
   <si>
-    <t>college grammar(英語のみ)</t>
-  </si>
-  <si>
     <t>竹内愛</t>
   </si>
   <si>
-    <t>児童英語教授法演習 i</t>
-  </si>
-  <si>
     <t>西洋史概論</t>
   </si>
   <si>
-    <t>教育言語学 i</t>
-  </si>
-  <si>
     <t>小林恵美</t>
   </si>
   <si>
@@ -254,72 +159,33 @@
     <t>異文化理解</t>
   </si>
   <si>
-    <t>教育言語学 ii</t>
-  </si>
-  <si>
     <t>生徒指導論(中等)</t>
   </si>
   <si>
     <t>希志一弘</t>
   </si>
   <si>
-    <t>体育館.グラウンド</t>
-  </si>
-  <si>
-    <t>総合英語 iib2(英語のみ)</t>
-  </si>
-  <si>
     <t>西田桐子</t>
   </si>
   <si>
-    <t>英語学 i</t>
-  </si>
-  <si>
-    <t>総合英語 ivb2(英語のみ)</t>
-  </si>
-  <si>
     <t>地域研究</t>
   </si>
   <si>
     <t>野口華世</t>
   </si>
   <si>
-    <t>英語学 ii</t>
-  </si>
-  <si>
     <t>4年</t>
   </si>
   <si>
-    <t>advanced speaking ib(英語のみ)</t>
-  </si>
-  <si>
-    <t>advanced speaking iib(英語のみ)</t>
-  </si>
-  <si>
     <t>卒業研究(内田)</t>
   </si>
   <si>
-    <t>spoken english ib2</t>
-  </si>
-  <si>
-    <t>spoken english ie</t>
-  </si>
-  <si>
-    <t>spoken english ig</t>
-  </si>
-  <si>
-    <t>ハングル i</t>
-  </si>
-  <si>
     <t>李文鎬</t>
   </si>
   <si>
     <t>大嶋果織</t>
   </si>
   <si>
-    <t>国語表現(情報 f1.f2)</t>
-  </si>
-  <si>
     <t>法学概論</t>
   </si>
   <si>
@@ -335,33 +201,6 @@
     <t>月井順一</t>
   </si>
   <si>
-    <t>spoken english iib2</t>
-  </si>
-  <si>
-    <t>spoken english iie</t>
-  </si>
-  <si>
-    <t>spoken english iig</t>
-  </si>
-  <si>
-    <t>ハングルii</t>
-  </si>
-  <si>
-    <t>キリスト教概論ii</t>
-  </si>
-  <si>
-    <t>国語表現(a1.a2.b4)</t>
-  </si>
-  <si>
-    <t>日本事情ii</t>
-  </si>
-  <si>
-    <t>written english ic</t>
-  </si>
-  <si>
-    <t>中国語c</t>
-  </si>
-  <si>
     <t>世界経済</t>
   </si>
   <si>
@@ -380,18 +219,9 @@
     <t>諏訪美智子</t>
   </si>
   <si>
-    <t>written english iic</t>
-  </si>
-  <si>
-    <t>コミュニケーション論 i</t>
-  </si>
-  <si>
     <t>篠原美登里</t>
   </si>
   <si>
-    <t>児童英語教授法演習ii</t>
-  </si>
-  <si>
     <t>マーケティング</t>
   </si>
   <si>
@@ -404,57 +234,27 @@
     <t>民法</t>
   </si>
   <si>
-    <t>教育と人間「教育原理i」(初等)</t>
-  </si>
-  <si>
     <t>呉宣児</t>
   </si>
   <si>
-    <t>総合英語iiia1(英語のみ)</t>
-  </si>
-  <si>
     <t>ロリアンデロージェ</t>
   </si>
   <si>
-    <t>コミュニケーション論ii</t>
-  </si>
-  <si>
     <t>環境心理学</t>
   </si>
   <si>
-    <t>総合英語iva1(英語のみ)</t>
-  </si>
-  <si>
     <t>イスラームの歴史と社会</t>
   </si>
   <si>
     <t>地域づくり論</t>
   </si>
   <si>
-    <t>advanced writing i(aクラスのみ)</t>
-  </si>
-  <si>
-    <t>advanced writing ii(aクラスのみ)</t>
-  </si>
-  <si>
     <t>卒業研究(園田)</t>
   </si>
   <si>
     <t>卒業研究(岡井)(前期のみ)</t>
   </si>
   <si>
-    <t>unified english ib3</t>
-  </si>
-  <si>
-    <t>unified english ib</t>
-  </si>
-  <si>
-    <t>spiaking of japan ib1.b2</t>
-  </si>
-  <si>
-    <t>ハングルi</t>
-  </si>
-  <si>
     <t>日本語教育概論</t>
   </si>
   <si>
@@ -476,30 +276,12 @@
     <t>鈴木幸枝</t>
   </si>
   <si>
-    <t>psychology today(心理)</t>
-  </si>
-  <si>
     <t>唐音啓</t>
   </si>
   <si>
-    <t>unified english iib3</t>
-  </si>
-  <si>
-    <t>unified english iid</t>
-  </si>
-  <si>
     <t>　西田桐子</t>
   </si>
   <si>
-    <t>speaking of japan iib1.b2</t>
-  </si>
-  <si>
-    <t>中国語 ii</t>
-  </si>
-  <si>
-    <t>ハングル ii</t>
-  </si>
-  <si>
     <t>現代ヨーロッパ入門</t>
   </si>
   <si>
@@ -536,9 +318,6 @@
     <t>夏坂哲志</t>
   </si>
   <si>
-    <t>global lssues in english for teachers i</t>
-  </si>
-  <si>
     <t>地球と環境</t>
   </si>
   <si>
@@ -548,21 +327,12 @@
     <t>算数科教育法</t>
   </si>
   <si>
-    <t>global lssues in english for teachers ii</t>
-  </si>
-  <si>
-    <t>世界の地誌 i</t>
-  </si>
-  <si>
     <t>中牧崇</t>
   </si>
   <si>
     <t>企業法</t>
   </si>
   <si>
-    <t>世界の地誌 ii</t>
-  </si>
-  <si>
     <t>児童英語教育演習</t>
   </si>
   <si>
@@ -587,60 +357,24 @@
     <t>人権と共生</t>
   </si>
   <si>
-    <t>psychology todday(心理以外)</t>
-  </si>
-  <si>
     <t>国語表現(心理)</t>
   </si>
   <si>
     <t>東アジア比較文化論</t>
   </si>
   <si>
-    <t>日本語教授法演習 i</t>
-  </si>
-  <si>
-    <t>国際経営 i</t>
-  </si>
-  <si>
-    <t>初等理科教育法 ii</t>
-  </si>
-  <si>
     <t>鷲見辰美</t>
   </si>
   <si>
-    <t>日本語教授法演習 ii</t>
-  </si>
-  <si>
-    <t>国際経営 ii</t>
-  </si>
-  <si>
     <t>初等国語実践演習(書写を含む)</t>
   </si>
   <si>
     <t>青木伸生</t>
   </si>
   <si>
-    <t>課題演習 i(大森)</t>
-  </si>
-  <si>
     <t>大森昭生</t>
   </si>
   <si>
-    <t>課題演習 i(ペニントン)</t>
-  </si>
-  <si>
-    <t>課題演習 i(小林)</t>
-  </si>
-  <si>
-    <t>課題演習 i(デロージェ)</t>
-  </si>
-  <si>
-    <t>課題演習 i(竹内)</t>
-  </si>
-  <si>
-    <t>課題演習 i(園田)</t>
-  </si>
-  <si>
     <t>時事経済</t>
   </si>
   <si>
@@ -650,34 +384,10 @@
     <t>初等理科実践演習</t>
   </si>
   <si>
-    <t>課題演習 ii(大森)</t>
-  </si>
-  <si>
-    <t>課題演習 ii(ペニントン)</t>
-  </si>
-  <si>
-    <t>課題演習 ii(小林)</t>
-  </si>
-  <si>
-    <t>課題演習 ii(デロージェ)</t>
-  </si>
-  <si>
-    <t>課題演習 ii(竹内)</t>
-  </si>
-  <si>
-    <t>課題演習 ii(園田)</t>
-  </si>
-  <si>
     <t>卒業研究(本多)</t>
   </si>
   <si>
     <t>卒業研究(謝)</t>
-  </si>
-  <si>
-    <t>multi-cultural understanding</t>
-  </si>
-  <si>
-    <t>multi-cultural commumication</t>
   </si>
   <si>
     <t>体育館/グラウンド</t>
@@ -685,6 +395,316 @@
   </si>
   <si>
     <t>1年</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Spoken English IG</t>
+  </si>
+  <si>
+    <t>Spoken English IIE</t>
+  </si>
+  <si>
+    <t>Unified English IIg</t>
+  </si>
+  <si>
+    <t>ハングルII</t>
+  </si>
+  <si>
+    <t>キリスト教概論II</t>
+  </si>
+  <si>
+    <t>日本事情II</t>
+  </si>
+  <si>
+    <t>児童英語教授法演習II</t>
+  </si>
+  <si>
+    <t>コミュニケーション論II</t>
+  </si>
+  <si>
+    <t>Spoken English IIG</t>
+  </si>
+  <si>
+    <t>中国語c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unified English IB3</t>
+  </si>
+  <si>
+    <t>Unified English IB</t>
+  </si>
+  <si>
+    <t>Unified English IIB1</t>
+  </si>
+  <si>
+    <t>Spoken English IIB3</t>
+  </si>
+  <si>
+    <t>Unified English IIB3</t>
+  </si>
+  <si>
+    <t>Spoken English IIB2</t>
+  </si>
+  <si>
+    <t>総合英語IIIA1(英語のみ)</t>
+  </si>
+  <si>
+    <t>Spoken English IC</t>
+  </si>
+  <si>
+    <t>Spoken English IIC</t>
+  </si>
+  <si>
+    <t>Unified English IID</t>
+  </si>
+  <si>
+    <t>Spoken English IF1</t>
+  </si>
+  <si>
+    <t>Spoken English IIF1</t>
+  </si>
+  <si>
+    <t>Unified English IF2</t>
+  </si>
+  <si>
+    <t>Unified English IIF2</t>
+  </si>
+  <si>
+    <t>キリスト教概論I</t>
+  </si>
+  <si>
+    <t>ハングルI</t>
+  </si>
+  <si>
+    <t>教育と人間「教育原理I」(初等)</t>
+  </si>
+  <si>
+    <t>wrItten English IC</t>
+  </si>
+  <si>
+    <t>wrItten English IIC</t>
+  </si>
+  <si>
+    <t>psychology toddAy(心理以外)</t>
+  </si>
+  <si>
+    <t>Unified English IIH</t>
+  </si>
+  <si>
+    <t>Unified English IG</t>
+  </si>
+  <si>
+    <t>中国語I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中国語A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国語表現(情報F3・児童)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中国語I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中国語b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国語表現 (B1・B2・B3)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>College Grammer(英語のみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>児童英語教授法演習I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教育言語学I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CALLIA</t>
+  </si>
+  <si>
+    <t>日本語教授法演習I</t>
+  </si>
+  <si>
+    <t>英語ReadingIA1</t>
+  </si>
+  <si>
+    <t>国際経営I</t>
+  </si>
+  <si>
+    <t>初等理科教育法II</t>
+  </si>
+  <si>
+    <t>英語ReadingIIA1</t>
+  </si>
+  <si>
+    <t>日本語教授法演習II</t>
+  </si>
+  <si>
+    <t>国際経営II</t>
+  </si>
+  <si>
+    <t>英米地域研究I</t>
+  </si>
+  <si>
+    <t>中国語II</t>
+  </si>
+  <si>
+    <t>課題実習I(内田)</t>
+  </si>
+  <si>
+    <t>課題演習I(大森)</t>
+  </si>
+  <si>
+    <t>英米地域研究II</t>
+  </si>
+  <si>
+    <t>CALLIIA</t>
+  </si>
+  <si>
+    <t>課題演習I(ペニントン)</t>
+  </si>
+  <si>
+    <t>課題演習I(小林)</t>
+  </si>
+  <si>
+    <t>観光実習II(内田)</t>
+  </si>
+  <si>
+    <t>課題演習I(デロージェ)</t>
+  </si>
+  <si>
+    <t>課題演習I(竹内)</t>
+  </si>
+  <si>
+    <t>課題演習I(園田)</t>
+  </si>
+  <si>
+    <t>課題演習II(大森)</t>
+  </si>
+  <si>
+    <t>課題演習II(ペニントン)</t>
+  </si>
+  <si>
+    <t>課題演習II(小林)</t>
+  </si>
+  <si>
+    <t>コミュニケーション論I</t>
+  </si>
+  <si>
+    <t>課題演習II(デロージェ)</t>
+  </si>
+  <si>
+    <t>課題演習II(竹内)</t>
+  </si>
+  <si>
+    <t>課題演習II(園田)</t>
+  </si>
+  <si>
+    <t>世界の地誌I</t>
+  </si>
+  <si>
+    <t>教育言語学II</t>
+  </si>
+  <si>
+    <t>世界の地誌II</t>
+  </si>
+  <si>
+    <t>総合英語IIB2(英語のみ)</t>
+  </si>
+  <si>
+    <t>英語学I</t>
+  </si>
+  <si>
+    <t>英語学II</t>
+  </si>
+  <si>
+    <t>総合英語IVB2(英語のみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Advanced Reading IB(英語のみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Advanced Reading IIB(英語のみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unified English  IB1</t>
+  </si>
+  <si>
+    <t>Spoken English  IB2</t>
+  </si>
+  <si>
+    <t>Unified English  IH</t>
+  </si>
+  <si>
+    <t>Spoken English  IE</t>
+  </si>
+  <si>
+    <t>Spoken English  IB3</t>
+  </si>
+  <si>
+    <t>国語表現(情報 F1・F2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国語表現(A1・A2・B4)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>体育館・グラウンド</t>
+  </si>
+  <si>
+    <t>総合英語IVA1(英語のみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Advanced Writing I(Aクラスのみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Advanced Writing II(Aクラスのみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Speaking  of japan IB1・B2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Psychology Today(心理)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Speaking of Japan IIB1・b2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Grobal Issues in English Teachers I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Grobal Issues in English Teachers II</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Multi-Culutural Understainding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Multi-Culutural Communication</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -738,12 +758,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,94 +1084,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" customWidth="1"/>
-    <col min="24" max="24" width="8.5" customWidth="1"/>
-    <col min="25" max="25" width="10.25" customWidth="1"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
         <v>1301</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1">
         <v>1301</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O1" s="1">
         <v>4203</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T1" s="1">
         <v>1303</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y1" s="1">
         <v>1101</v>
@@ -1157,2115 +1173,2115 @@
         <v>216</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD1" s="1">
         <v>4201</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>1303</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>1303</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1">
         <v>1303</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1">
         <v>1213</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>217</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="1">
         <v>4201</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>4203</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
         <v>4206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
         <v>4201</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1">
         <v>1304</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1">
         <v>2401</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>1101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1">
         <v>4201</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1">
         <v>1401</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" s="1">
         <v>4206</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="1">
         <v>1201</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>1301</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
         <v>1403</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1">
         <v>4206</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" s="1">
         <v>4201</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="1">
         <v>1101</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>1303</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
         <v>4202</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>1101</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" s="1">
         <v>4204</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>4203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
         <v>1213</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" s="1">
         <v>1101</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="1">
         <v>4204</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>1101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1">
         <v>1203</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" s="1">
         <v>2401</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="1">
         <v>1203</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>1213</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>1101</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
         <v>1213</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" s="1">
         <v>1201</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="1">
         <v>3101</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>2401</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T10" s="1">
         <v>1301</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10" s="1">
         <v>1311</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
         <v>1213</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1">
         <v>1301</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1">
         <v>2401</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T11" s="1">
         <v>1213</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y11" s="1">
         <v>1203</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1">
         <v>1303</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O12" s="1">
         <v>4203</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T12" s="1">
         <v>1304</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="1">
         <v>3101</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <v>3301</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1">
         <v>4206</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O13" s="1">
         <v>1301</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T13" s="1">
         <v>4202</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y13" s="1">
         <v>1303</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <v>2411</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1">
         <v>4201</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O14" s="1">
         <v>4201</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T14" s="1">
         <v>4206</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="1">
         <v>4111</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>3301</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
         <v>1403</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O15" s="1">
         <v>4206</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T15" s="1">
         <v>1201</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="1">
         <v>2413</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>2401</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1">
         <v>1401</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O16" s="1">
         <v>1101</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T16" s="1">
         <v>1205</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="1">
         <v>4202</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
         <v>2411</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1">
         <v>4202</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T17" s="1">
         <v>4201</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="1">
         <v>1314</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1">
         <v>1213</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O18" s="1">
         <v>1213</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T18" s="1">
         <v>4204</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="1">
         <v>1302</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" s="1">
         <v>1302</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="1">
         <v>4211</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" s="1">
         <v>1315</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20" s="1">
         <v>3103</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y20" s="1">
         <v>2302</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1">
         <v>1101</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21" s="1">
         <v>3101</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" s="1">
         <v>2302</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y21" s="1">
         <v>1311</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1">
         <v>1302</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="1">
         <v>1201</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T22" s="1">
         <v>1311</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y22" s="1">
         <v>4111</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1">
         <v>1401</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23" s="1">
         <v>2302</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23" s="1">
         <v>1302</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y23" s="1">
         <v>2413</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1">
         <v>3101</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O24" s="1">
         <v>1302</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T24" s="1">
         <v>2401</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y24" s="1">
         <v>4202</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>1304</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O25" s="1">
         <v>1205</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T25" s="1">
         <v>3101</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y25" s="1">
         <v>1314</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1">
         <v>2301</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O26" s="1">
         <v>1401</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T26" s="1">
         <v>2302</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y26" s="1">
         <v>1302</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
         <v>1205</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O27" s="1">
         <v>2401</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T27" s="1">
         <v>2301</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y27" s="1">
         <v>4211</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1">
         <v>1206</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O28" s="1">
         <v>2302</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T28" s="1">
         <v>1311</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="V28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="X28" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="68" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1">
         <v>2401</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O29" s="1">
         <v>1203</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T29" s="1">
         <v>1302</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y29" s="1">
         <v>4203</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1">
         <v>3101</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O30" s="1">
         <v>4204</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T30" s="1">
         <v>1206</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="1" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1">
         <v>1304</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="1">
         <v>1312</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T31" s="1">
         <v>1205</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1">
         <v>1206</v>
@@ -3274,391 +3290,391 @@
         <v>130</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="1">
         <v>1304</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T32" s="1">
         <v>1206</v>
       </c>
     </row>
-    <row r="33" spans="6:20" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="1">
         <v>4204</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T33" s="1">
         <v>1401</v>
       </c>
     </row>
-    <row r="34" spans="6:20" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="1" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1">
         <v>1313</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O34" s="1">
         <v>1312</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T34" s="1">
         <v>1313</v>
       </c>
     </row>
-    <row r="35" spans="6:20" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1">
         <v>1312</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O35" s="1">
         <v>1206</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T35" s="1">
         <v>2413</v>
       </c>
     </row>
-    <row r="36" spans="6:20" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="1" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1">
         <v>1313</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O36" s="1">
         <v>1201</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T36" s="1">
         <v>1315</v>
       </c>
     </row>
-    <row r="37" spans="6:20" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J37" s="1">
         <v>1211</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" s="1">
         <v>1301</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T37" s="1">
         <v>1214</v>
       </c>
     </row>
-    <row r="38" spans="6:20" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="1" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J38" s="1">
         <v>1312</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O38" s="1">
         <v>1301</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T38" s="1">
         <v>1314</v>
       </c>
     </row>
-    <row r="39" spans="6:20" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="1" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1">
         <v>4203</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O39" s="1">
         <v>4112</v>
       </c>
     </row>
-    <row r="40" spans="6:20" ht="68" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="1" t="s">
-        <v>89</v>
+        <v>199</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J40" s="1">
         <v>4203</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O40" s="1">
         <v>1314</v>
       </c>
     </row>
-    <row r="41" spans="6:20" ht="34" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J41" s="1">
         <v>2411</v>
@@ -3667,5 +3683,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/Http/Python/excel/Tuesday.xlsx
+++ b/app/Http/Python/excel/Tuesday.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\library_vue\app\Http\Python\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\syllabus\app\Http\Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,9 +194,6 @@
     <t>日本事情</t>
   </si>
   <si>
-    <t>教育課程論(中等)</t>
-  </si>
-  <si>
     <t>月井順一</t>
   </si>
   <si>
@@ -503,10 +499,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>国語表現(情報F3・児童)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>中国語I</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -515,14 +507,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>国語表現 (B1・B2・B3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>College Grammer(英語のみ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>児童英語教授法演習I</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -630,18 +614,6 @@
     <t>英語学II</t>
   </si>
   <si>
-    <t>総合英語IVB2(英語のみ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Advanced Reading IB(英語のみ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Advanced Reading IIB(英語のみ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Unified English  IB1</t>
   </si>
   <si>
@@ -657,37 +629,13 @@
     <t>Spoken English  IB3</t>
   </si>
   <si>
-    <t>国語表現(情報 F1・F2)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>国語表現(A1・A2・B4)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>体育館・グラウンド</t>
-  </si>
-  <si>
-    <t>総合英語IVA1(英語のみ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Advanced Writing I(Aクラスのみ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Advanced Writing II(Aクラスのみ)</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Speaking  of japan IB1・B2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Psychology Today(心理)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Speaking of Japan IIB1・b2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -700,12 +648,51 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Multi-Culutural Understainding</t>
+    <t>Multi-Cultural Understainding</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Multi-Culutural Communication</t>
+    <t>Multi-Cultural Communication</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国語表現(情報 F1・F2)</t>
+  </si>
+  <si>
+    <t>国語表現(情報F3・児童)</t>
+  </si>
+  <si>
+    <t>Psychology Today(心理)</t>
+  </si>
+  <si>
+    <t>教育課程論(中等)</t>
+  </si>
+  <si>
+    <t>国語表現(A1・A2・B4)</t>
+  </si>
+  <si>
+    <t>国語表現 (B1・B2・B3)</t>
+  </si>
+  <si>
+    <t>College Grammer(英語のみ)</t>
+  </si>
+  <si>
+    <t>総合英語IVA1(英語のみ)</t>
+  </si>
+  <si>
+    <t>総合英語IVB2(英語のみ)</t>
+  </si>
+  <si>
+    <t>Advanced Writing I(Aクラスのみ)</t>
+  </si>
+  <si>
+    <t>Advanced Writing II(Aクラスのみ)</t>
+  </si>
+  <si>
+    <t>Advanced Reading IB(英語のみ)</t>
+  </si>
+  <si>
+    <t>Advanced Reading IIB(英語のみ)</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1095,13 +1082,13 @@
   <sheetData>
     <row r="1" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1110,7 +1097,7 @@
         <v>1301</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1125,7 +1112,7 @@
         <v>1301</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -1140,7 +1127,7 @@
         <v>4203</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
@@ -1155,7 +1142,7 @@
         <v>1303</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>52</v>
@@ -1170,7 +1157,7 @@
         <v>1101</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
@@ -1187,7 +1174,7 @@
     </row>
     <row r="2" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1202,7 +1189,7 @@
         <v>1303</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -1217,7 +1204,7 @@
         <v>1303</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>3</v>
@@ -1232,7 +1219,7 @@
         <v>1303</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>46</v>
@@ -1247,7 +1234,7 @@
         <v>1213</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>22</v>
@@ -1262,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>34</v>
@@ -1279,7 +1266,7 @@
     </row>
     <row r="3" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1294,7 +1281,7 @@
         <v>4203</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -1309,7 +1296,7 @@
         <v>4206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>19</v>
@@ -1324,10 +1311,10 @@
         <v>4201</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>0</v>
@@ -1339,7 +1326,7 @@
         <v>1304</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>25</v>
@@ -1356,7 +1343,7 @@
     </row>
     <row r="4" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1371,7 +1358,7 @@
         <v>1101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1401,7 +1388,7 @@
         <v>1401</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>51</v>
@@ -1416,10 +1403,10 @@
         <v>4206</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>0</v>
@@ -1433,7 +1420,7 @@
     </row>
     <row r="5" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1448,7 +1435,7 @@
         <v>1301</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -1463,7 +1450,7 @@
         <v>1403</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>51</v>
@@ -1478,10 +1465,10 @@
         <v>4206</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>0</v>
@@ -1493,7 +1480,7 @@
         <v>4201</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>52</v>
@@ -1510,7 +1497,7 @@
     </row>
     <row r="6" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1525,7 +1512,7 @@
         <v>1303</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -1540,7 +1527,7 @@
         <v>4202</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>52</v>
@@ -1555,10 +1542,10 @@
         <v>1101</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>0</v>
@@ -1570,7 +1557,7 @@
         <v>4204</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>22</v>
@@ -1587,7 +1574,7 @@
     </row>
     <row r="7" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1602,7 +1589,7 @@
         <v>4203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -1632,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
@@ -1647,10 +1634,10 @@
         <v>1101</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>0</v>
@@ -1664,7 +1651,7 @@
     </row>
     <row r="8" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1679,7 +1666,7 @@
         <v>1101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -1709,10 +1696,10 @@
         <v>1203</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>0</v>
@@ -1724,10 +1711,10 @@
         <v>2401</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>7</v>
@@ -1741,7 +1728,7 @@
     </row>
     <row r="9" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1786,10 +1773,10 @@
         <v>1213</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>0</v>
@@ -1801,10 +1788,10 @@
         <v>1201</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>7</v>
@@ -1863,7 +1850,7 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>3</v>
@@ -1878,10 +1865,10 @@
         <v>1301</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>7</v>
@@ -1895,7 +1882,7 @@
     </row>
     <row r="11" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1910,7 +1897,7 @@
         <v>1213</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
@@ -1925,10 +1912,10 @@
         <v>1301</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>0</v>
@@ -1940,10 +1927,10 @@
         <v>2401</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>0</v>
@@ -1955,10 +1942,10 @@
         <v>1213</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>7</v>
@@ -1984,10 +1971,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>3</v>
@@ -2002,7 +1989,7 @@
         <v>1303</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>4</v>
@@ -2017,10 +2004,10 @@
         <v>4203</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>0</v>
@@ -2032,10 +2019,10 @@
         <v>1304</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>7</v>
@@ -2049,7 +2036,7 @@
     </row>
     <row r="13" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -2064,7 +2051,7 @@
         <v>3301</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -2079,7 +2066,7 @@
         <v>4206</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>3</v>
@@ -2094,7 +2081,7 @@
         <v>1301</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
@@ -2109,10 +2096,10 @@
         <v>4202</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>7</v>
@@ -2126,7 +2113,7 @@
     </row>
     <row r="14" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -2141,7 +2128,7 @@
         <v>2411</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>19</v>
@@ -2156,7 +2143,7 @@
         <v>4201</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>19</v>
@@ -2171,7 +2158,7 @@
         <v>4201</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>51</v>
@@ -2186,10 +2173,10 @@
         <v>4206</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>14</v>
@@ -2203,7 +2190,7 @@
     </row>
     <row r="15" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -2218,7 +2205,7 @@
         <v>3301</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
@@ -2233,7 +2220,7 @@
         <v>1403</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>51</v>
@@ -2248,10 +2235,10 @@
         <v>4206</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>0</v>
@@ -2263,7 +2250,7 @@
         <v>1201</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>15</v>
@@ -2310,7 +2297,7 @@
         <v>1401</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>52</v>
@@ -2325,10 +2312,10 @@
         <v>1101</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>0</v>
@@ -2340,7 +2327,7 @@
         <v>1205</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>36</v>
@@ -2357,7 +2344,7 @@
     </row>
     <row r="17" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -2372,7 +2359,7 @@
         <v>2411</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>20</v>
@@ -2387,7 +2374,7 @@
         <v>4202</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>22</v>
@@ -2402,10 +2389,10 @@
         <v>23</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>0</v>
@@ -2417,10 +2404,10 @@
         <v>4201</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>14</v>
@@ -2434,7 +2421,7 @@
     </row>
     <row r="18" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>21</v>
@@ -2449,7 +2436,7 @@
         <v>1213</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
@@ -2464,10 +2451,10 @@
         <v>1213</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>0</v>
@@ -2479,7 +2466,7 @@
         <v>4204</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>34</v>
@@ -2496,7 +2483,7 @@
     </row>
     <row r="19" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="1" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
@@ -2511,7 +2498,7 @@
         <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>46</v>
@@ -2526,7 +2513,7 @@
         <v>1302</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>27</v>
@@ -2541,7 +2528,7 @@
         <v>28</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>18</v>
@@ -2573,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>21</v>
@@ -2588,10 +2575,10 @@
         <v>1315</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>7</v>
@@ -2603,10 +2590,10 @@
         <v>3103</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>14</v>
@@ -2635,10 +2622,10 @@
         <v>1101</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>7</v>
@@ -2650,10 +2637,10 @@
         <v>3101</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>7</v>
@@ -2665,10 +2652,10 @@
         <v>2302</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>14</v>
@@ -2682,7 +2669,7 @@
     </row>
     <row r="22" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>34</v>
@@ -2697,10 +2684,10 @@
         <v>1302</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>7</v>
@@ -2712,10 +2699,10 @@
         <v>1201</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>7</v>
@@ -2727,10 +2714,10 @@
         <v>1311</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>14</v>
@@ -2744,7 +2731,7 @@
     </row>
     <row r="23" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
@@ -2759,10 +2746,10 @@
         <v>1401</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>7</v>
@@ -2774,7 +2761,7 @@
         <v>2302</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>34</v>
@@ -2789,7 +2776,7 @@
         <v>1302</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>15</v>
@@ -2821,7 +2808,7 @@
         <v>3101</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>46</v>
@@ -2836,10 +2823,10 @@
         <v>1302</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>7</v>
@@ -2851,7 +2838,7 @@
         <v>2401</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>36</v>
@@ -2868,7 +2855,7 @@
     </row>
     <row r="25" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>36</v>
@@ -2883,10 +2870,10 @@
         <v>1304</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>7</v>
@@ -2898,10 +2885,10 @@
         <v>1205</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>7</v>
@@ -2913,10 +2900,10 @@
         <v>3101</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>14</v>
@@ -2945,7 +2932,7 @@
         <v>2301</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>30</v>
@@ -2960,10 +2947,10 @@
         <v>1401</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>7</v>
@@ -2975,7 +2962,7 @@
         <v>2302</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>34</v>
@@ -3007,10 +2994,10 @@
         <v>1205</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>7</v>
@@ -3022,10 +3009,10 @@
         <v>2401</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>7</v>
@@ -3037,7 +3024,7 @@
         <v>2301</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>18</v>
@@ -3069,10 +3056,10 @@
         <v>1206</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>7</v>
@@ -3084,10 +3071,10 @@
         <v>2302</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>7</v>
@@ -3099,7 +3086,7 @@
         <v>1311</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>27</v>
@@ -3131,7 +3118,7 @@
         <v>2401</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>54</v>
@@ -3146,7 +3133,7 @@
         <v>1203</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>34</v>
@@ -3161,10 +3148,10 @@
         <v>1302</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W29" s="1" t="s">
         <v>49</v>
@@ -3193,10 +3180,10 @@
         <v>3101</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>7</v>
@@ -3208,10 +3195,10 @@
         <v>4204</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>14</v>
@@ -3225,7 +3212,7 @@
     </row>
     <row r="31" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>36</v>
@@ -3240,10 +3227,10 @@
         <v>1304</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>14</v>
@@ -3255,7 +3242,7 @@
         <v>1312</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>54</v>
@@ -3287,10 +3274,10 @@
         <v>1206</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>14</v>
@@ -3302,10 +3289,10 @@
         <v>1304</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>14</v>
@@ -3331,13 +3318,13 @@
         <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>14</v>
@@ -3349,7 +3336,7 @@
         <v>4204</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>30</v>
@@ -3366,7 +3353,7 @@
     </row>
     <row r="34" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>46</v>
@@ -3381,10 +3368,10 @@
         <v>1313</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>14</v>
@@ -3396,7 +3383,7 @@
         <v>1312</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>5</v>
@@ -3413,7 +3400,7 @@
     </row>
     <row r="35" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3428,7 +3415,7 @@
         <v>1312</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>10</v>
@@ -3443,7 +3430,7 @@
         <v>1206</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>15</v>
@@ -3460,7 +3447,7 @@
     </row>
     <row r="36" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>46</v>
@@ -3475,10 +3462,10 @@
         <v>1313</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>14</v>
@@ -3490,7 +3477,7 @@
         <v>1201</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>21</v>
@@ -3522,7 +3509,7 @@
         <v>1211</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>4</v>
@@ -3537,10 +3524,10 @@
         <v>1301</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>49</v>
@@ -3554,7 +3541,7 @@
     </row>
     <row r="38" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>8</v>
@@ -3569,7 +3556,7 @@
         <v>1312</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>4</v>
@@ -3584,7 +3571,7 @@
         <v>1301</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>10</v>
@@ -3601,7 +3588,7 @@
     </row>
     <row r="39" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>4</v>
@@ -3616,7 +3603,7 @@
         <v>4203</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>18</v>
@@ -3633,7 +3620,7 @@
     </row>
     <row r="40" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>4</v>
@@ -3648,7 +3635,7 @@
         <v>4203</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>10</v>

--- a/app/Http/Python/excel/Tuesday.xlsx
+++ b/app/Http/Python/excel/Tuesday.xlsx
@@ -146,9 +146,6 @@
     <t>茂木三枝</t>
   </si>
   <si>
-    <t>生徒指導論(初等)</t>
-  </si>
-  <si>
     <t>懸川武史</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>異文化理解</t>
   </si>
   <si>
-    <t>生徒指導論(中等)</t>
-  </si>
-  <si>
     <t>希志一弘</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>4年</t>
   </si>
   <si>
-    <t>卒業研究(内田)</t>
-  </si>
-  <si>
     <t>李文鎬</t>
   </si>
   <si>
@@ -245,12 +236,6 @@
     <t>地域づくり論</t>
   </si>
   <si>
-    <t>卒業研究(園田)</t>
-  </si>
-  <si>
-    <t>卒業研究(岡井)(前期のみ)</t>
-  </si>
-  <si>
     <t>日本語教育概論</t>
   </si>
   <si>
@@ -332,39 +317,15 @@
     <t>児童英語教育演習</t>
   </si>
   <si>
-    <t>卒業研究(野村)</t>
-  </si>
-  <si>
-    <t>卒業研究(ペニントン)</t>
-  </si>
-  <si>
-    <t>卒業研究(張)</t>
-  </si>
-  <si>
-    <t>卒業研究(鈴木)</t>
-  </si>
-  <si>
-    <t>卒業研究(岡井)(後期のみ)</t>
-  </si>
-  <si>
-    <t>国語表現(国際)</t>
-  </si>
-  <si>
     <t>人権と共生</t>
   </si>
   <si>
-    <t>国語表現(心理)</t>
-  </si>
-  <si>
     <t>東アジア比較文化論</t>
   </si>
   <si>
     <t>鷲見辰美</t>
   </si>
   <si>
-    <t>初等国語実践演習(書写を含む)</t>
-  </si>
-  <si>
     <t>青木伸生</t>
   </si>
   <si>
@@ -378,12 +339,6 @@
   </si>
   <si>
     <t>初等理科実践演習</t>
-  </si>
-  <si>
-    <t>卒業研究(本多)</t>
-  </si>
-  <si>
-    <t>卒業研究(謝)</t>
   </si>
   <si>
     <t>体育館/グラウンド</t>
@@ -443,9 +398,6 @@
     <t>Spoken English IIB2</t>
   </si>
   <si>
-    <t>総合英語IIIA1(英語のみ)</t>
-  </si>
-  <si>
     <t>Spoken English IC</t>
   </si>
   <si>
@@ -473,16 +425,10 @@
     <t>ハングルI</t>
   </si>
   <si>
-    <t>教育と人間「教育原理I」(初等)</t>
-  </si>
-  <si>
     <t>wrItten English IC</t>
   </si>
   <si>
     <t>wrItten English IIC</t>
-  </si>
-  <si>
-    <t>psychology toddAy(心理以外)</t>
   </si>
   <si>
     <t>Unified English IIH</t>
@@ -545,57 +491,15 @@
     <t>中国語II</t>
   </si>
   <si>
-    <t>課題実習I(内田)</t>
-  </si>
-  <si>
-    <t>課題演習I(大森)</t>
-  </si>
-  <si>
     <t>英米地域研究II</t>
   </si>
   <si>
     <t>CALLIIA</t>
   </si>
   <si>
-    <t>課題演習I(ペニントン)</t>
-  </si>
-  <si>
-    <t>課題演習I(小林)</t>
-  </si>
-  <si>
-    <t>観光実習II(内田)</t>
-  </si>
-  <si>
-    <t>課題演習I(デロージェ)</t>
-  </si>
-  <si>
-    <t>課題演習I(竹内)</t>
-  </si>
-  <si>
-    <t>課題演習I(園田)</t>
-  </si>
-  <si>
-    <t>課題演習II(大森)</t>
-  </si>
-  <si>
-    <t>課題演習II(ペニントン)</t>
-  </si>
-  <si>
-    <t>課題演習II(小林)</t>
-  </si>
-  <si>
     <t>コミュニケーション論I</t>
   </si>
   <si>
-    <t>課題演習II(デロージェ)</t>
-  </si>
-  <si>
-    <t>課題演習II(竹内)</t>
-  </si>
-  <si>
-    <t>課題演習II(園田)</t>
-  </si>
-  <si>
     <t>世界の地誌I</t>
   </si>
   <si>
@@ -603,9 +507,6 @@
   </si>
   <si>
     <t>世界の地誌II</t>
-  </si>
-  <si>
-    <t>総合英語IIB2(英語のみ)</t>
   </si>
   <si>
     <t>英語学I</t>
@@ -648,51 +549,150 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Multi-Cultural Understainding</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Multi-Cultural Communication</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>国語表現(情報 F1・F2)</t>
-  </si>
-  <si>
-    <t>国語表現(情報F3・児童)</t>
-  </si>
-  <si>
-    <t>Psychology Today(心理)</t>
-  </si>
-  <si>
-    <t>教育課程論(中等)</t>
-  </si>
-  <si>
-    <t>国語表現(A1・A2・B4)</t>
-  </si>
-  <si>
-    <t>国語表現 (B1・B2・B3)</t>
-  </si>
-  <si>
-    <t>College Grammer(英語のみ)</t>
-  </si>
-  <si>
-    <t>総合英語IVA1(英語のみ)</t>
-  </si>
-  <si>
-    <t>総合英語IVB2(英語のみ)</t>
-  </si>
-  <si>
-    <t>Advanced Writing I(Aクラスのみ)</t>
-  </si>
-  <si>
-    <t>Advanced Writing II(Aクラスのみ)</t>
-  </si>
-  <si>
-    <t>Advanced Reading IB(英語のみ)</t>
-  </si>
-  <si>
-    <t>Advanced Reading IIB(英語のみ)</t>
+    <t>Multi-Cultural Understanding</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国語表現（国際）</t>
+  </si>
+  <si>
+    <t>psychology toddAy（心理以外）</t>
+  </si>
+  <si>
+    <t>国語表現（心理）</t>
+  </si>
+  <si>
+    <t>国語表現（情報 F1・F2）</t>
+  </si>
+  <si>
+    <t>国語表現（情報F3・児童）</t>
+  </si>
+  <si>
+    <t>Psychology Today（心理）</t>
+  </si>
+  <si>
+    <t>教育課程論（中等）</t>
+  </si>
+  <si>
+    <t>初等国語実践演習（書写を含む）</t>
+  </si>
+  <si>
+    <t>課題実習I（内田）</t>
+  </si>
+  <si>
+    <t>課題演習I（大森）</t>
+  </si>
+  <si>
+    <t>課題演習I（ペニントン）</t>
+  </si>
+  <si>
+    <t>課題演習I（小林）</t>
+  </si>
+  <si>
+    <t>観光実習II（内田）</t>
+  </si>
+  <si>
+    <t>国語表現（A1・A2・B4）</t>
+  </si>
+  <si>
+    <t>課題演習I（デロージェ）</t>
+  </si>
+  <si>
+    <t>課題演習I（竹内）</t>
+  </si>
+  <si>
+    <t>国語表現 （B1・B2・B3）</t>
+  </si>
+  <si>
+    <t>課題演習I（園田）</t>
+  </si>
+  <si>
+    <t>College Grammer（英語のみ）</t>
+  </si>
+  <si>
+    <t>課題演習II（大森）</t>
+  </si>
+  <si>
+    <t>課題演習II（ペニントン）</t>
+  </si>
+  <si>
+    <t>課題演習II（小林）</t>
+  </si>
+  <si>
+    <t>課題演習II（デロージェ）</t>
+  </si>
+  <si>
+    <t>課題演習II（竹内）</t>
+  </si>
+  <si>
+    <t>課題演習II（園田）</t>
+  </si>
+  <si>
+    <t>生徒指導論（初等）</t>
+  </si>
+  <si>
+    <t>卒業研究（本多）</t>
+  </si>
+  <si>
+    <t>卒業研究（謝）</t>
+  </si>
+  <si>
+    <t>教育と人間「教育原理I」（初等）</t>
+  </si>
+  <si>
+    <t>総合英語IIIA1（英語のみ）</t>
+  </si>
+  <si>
+    <t>生徒指導論（中等）</t>
+  </si>
+  <si>
+    <t>総合英語IIB2（英語のみ）</t>
+  </si>
+  <si>
+    <t>総合英語IVA1（英語のみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（野村）</t>
+  </si>
+  <si>
+    <t>卒業研究（ペニントン）</t>
+  </si>
+  <si>
+    <t>総合英語IVB2（英語のみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（張）</t>
+  </si>
+  <si>
+    <t>Advanced Writing I（Aクラスのみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（鈴木）</t>
+  </si>
+  <si>
+    <t>Advanced Writing II（Aクラスのみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（岡井）（後期のみ）</t>
+  </si>
+  <si>
+    <t>Advanced Reading IB（英語のみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（園田）</t>
+  </si>
+  <si>
+    <t>Advanced Reading IIB（英語のみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（岡井）（前期のみ）</t>
+  </si>
+  <si>
+    <t>卒業研究（内田）</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1082,13 +1082,13 @@
   <sheetData>
     <row r="1" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1097,7 +1097,7 @@
         <v>1301</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>1301</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -1127,7 +1127,7 @@
         <v>4203</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
@@ -1142,10 +1142,10 @@
         <v>1303</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>1101</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="2" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>1303</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>1303</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>3</v>
@@ -1219,10 +1219,10 @@
         <v>1303</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1213</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>22</v>
@@ -1249,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>34</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="3" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1281,7 +1281,7 @@
         <v>4203</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -1296,7 +1296,7 @@
         <v>4206</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>19</v>
@@ -1311,10 +1311,10 @@
         <v>4201</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>1304</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>25</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="4" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1358,7 +1358,7 @@
         <v>1101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1388,10 +1388,10 @@
         <v>1401</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>0</v>
@@ -1403,10 +1403,10 @@
         <v>4206</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>0</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="5" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>1301</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
@@ -1450,10 +1450,10 @@
         <v>1403</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>4206</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>4201</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="6" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>1303</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -1527,10 +1527,10 @@
         <v>4202</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>1101</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>4204</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>22</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="7" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1589,7 +1589,7 @@
         <v>4203</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -1604,7 +1604,7 @@
         <v>1213</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>22</v>
@@ -1619,10 +1619,10 @@
         <v>23</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>1101</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>0</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="8" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1666,7 +1666,7 @@
         <v>1101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -1681,10 +1681,10 @@
         <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>1203</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>2401</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>7</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="9" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1758,7 +1758,7 @@
         <v>1101</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
@@ -1773,10 +1773,10 @@
         <v>1213</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>1201</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>7</v>
@@ -1850,7 +1850,7 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>3</v>
@@ -1865,10 +1865,10 @@
         <v>1301</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>7</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="11" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1897,7 +1897,7 @@
         <v>1213</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
@@ -1912,10 +1912,10 @@
         <v>1301</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>2401</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>1213</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>7</v>
@@ -1971,10 +1971,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>3</v>
@@ -1989,7 +1989,7 @@
         <v>1303</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>4</v>
@@ -2004,10 +2004,10 @@
         <v>4203</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>1304</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>7</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="13" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -2051,7 +2051,7 @@
         <v>3301</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -2066,7 +2066,7 @@
         <v>4206</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>3</v>
@@ -2081,7 +2081,7 @@
         <v>1301</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
@@ -2096,10 +2096,10 @@
         <v>4202</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>7</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="14" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -2128,7 +2128,7 @@
         <v>2411</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>19</v>
@@ -2143,7 +2143,7 @@
         <v>4201</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>19</v>
@@ -2158,10 +2158,10 @@
         <v>4201</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>4206</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>14</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="15" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -2205,7 +2205,7 @@
         <v>3301</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
@@ -2220,10 +2220,10 @@
         <v>1403</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>4206</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>1201</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>15</v>
@@ -2297,10 +2297,10 @@
         <v>1401</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>0</v>
@@ -2312,10 +2312,10 @@
         <v>1101</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>1205</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>36</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="17" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -2359,7 +2359,7 @@
         <v>2411</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>20</v>
@@ -2374,7 +2374,7 @@
         <v>4202</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>22</v>
@@ -2389,10 +2389,10 @@
         <v>23</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>4201</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>14</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="18" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>21</v>
@@ -2436,7 +2436,7 @@
         <v>1213</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
@@ -2451,10 +2451,10 @@
         <v>1213</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>4204</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>34</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="19" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
@@ -2498,10 +2498,10 @@
         <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>7</v>
@@ -2513,7 +2513,7 @@
         <v>1302</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>27</v>
@@ -2528,7 +2528,7 @@
         <v>28</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>18</v>
@@ -2560,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>21</v>
@@ -2575,10 +2575,10 @@
         <v>1315</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>7</v>
@@ -2590,10 +2590,10 @@
         <v>3103</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>14</v>
@@ -2622,10 +2622,10 @@
         <v>1101</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>7</v>
@@ -2637,10 +2637,10 @@
         <v>3101</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>7</v>
@@ -2652,10 +2652,10 @@
         <v>2302</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>14</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="22" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>34</v>
@@ -2684,10 +2684,10 @@
         <v>1302</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>7</v>
@@ -2699,10 +2699,10 @@
         <v>1201</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>7</v>
@@ -2714,10 +2714,10 @@
         <v>1311</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>14</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="23" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
@@ -2746,10 +2746,10 @@
         <v>1401</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>7</v>
@@ -2761,7 +2761,7 @@
         <v>2302</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>34</v>
@@ -2776,7 +2776,7 @@
         <v>1302</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>15</v>
@@ -2808,10 +2808,10 @@
         <v>3101</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>7</v>
@@ -2823,10 +2823,10 @@
         <v>1302</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>7</v>
@@ -2838,7 +2838,7 @@
         <v>2401</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>36</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="25" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>36</v>
@@ -2870,10 +2870,10 @@
         <v>1304</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>7</v>
@@ -2885,10 +2885,10 @@
         <v>1205</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>7</v>
@@ -2900,10 +2900,10 @@
         <v>3101</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>14</v>
@@ -2932,7 +2932,7 @@
         <v>2301</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>30</v>
@@ -2947,10 +2947,10 @@
         <v>1401</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>7</v>
@@ -2962,7 +2962,7 @@
         <v>2302</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>34</v>
@@ -2994,10 +2994,10 @@
         <v>1205</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>7</v>
@@ -3009,10 +3009,10 @@
         <v>2401</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>7</v>
@@ -3024,7 +3024,7 @@
         <v>2301</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>18</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="28" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>7</v>
@@ -3056,10 +3056,10 @@
         <v>1206</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>7</v>
@@ -3071,10 +3071,10 @@
         <v>2302</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>7</v>
@@ -3086,13 +3086,13 @@
         <v>1311</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>13</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="29" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>5</v>
@@ -3118,10 +3118,10 @@
         <v>2401</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>7</v>
@@ -3133,7 +3133,7 @@
         <v>1203</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>34</v>
@@ -3148,13 +3148,13 @@
         <v>1302</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>13</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="30" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>34</v>
@@ -3180,10 +3180,10 @@
         <v>3101</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>7</v>
@@ -3195,10 +3195,10 @@
         <v>4204</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>14</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="31" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="1" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>36</v>
@@ -3227,10 +3227,10 @@
         <v>1304</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>14</v>
@@ -3242,10 +3242,10 @@
         <v>1312</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>14</v>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="32" spans="1:25" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="1" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>7</v>
@@ -3274,10 +3274,10 @@
         <v>1206</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>14</v>
@@ -3289,10 +3289,10 @@
         <v>1304</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>14</v>
@@ -3309,7 +3309,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>7</v>
@@ -3318,13 +3318,13 @@
         <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>14</v>
@@ -3336,7 +3336,7 @@
         <v>4204</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>30</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="34" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
@@ -3368,10 +3368,10 @@
         <v>1313</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>14</v>
@@ -3383,13 +3383,13 @@
         <v>1312</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>13</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="35" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="1" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3415,7 +3415,7 @@
         <v>1312</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>10</v>
@@ -3430,13 +3430,13 @@
         <v>1206</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>13</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="36" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>14</v>
@@ -3462,10 +3462,10 @@
         <v>1313</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>14</v>
@@ -3477,13 +3477,13 @@
         <v>1201</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>13</v>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="37" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>14</v>
@@ -3509,13 +3509,13 @@
         <v>1211</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>2</v>
@@ -3524,13 +3524,13 @@
         <v>1301</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>13</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="38" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="1" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>8</v>
@@ -3556,13 +3556,13 @@
         <v>1312</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>6</v>
@@ -3571,13 +3571,13 @@
         <v>1301</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>13</v>
@@ -3588,13 +3588,13 @@
     </row>
     <row r="39" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>2</v>
@@ -3603,13 +3603,13 @@
         <v>4203</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>13</v>
@@ -3620,13 +3620,13 @@
     </row>
     <row r="40" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>6</v>
@@ -3635,13 +3635,13 @@
         <v>4203</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>13</v>
@@ -3652,13 +3652,13 @@
     </row>
     <row r="41" spans="6:20" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>13</v>
